--- a/medicine/Sexualité et sexologie/On_vit_d'amour/On_vit_d'amour.xlsx
+++ b/medicine/Sexualité et sexologie/On_vit_d'amour/On_vit_d'amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On_vit_d%27amour</t>
+          <t>On_vit_d'amour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On vit d'amour (D'amore si vive) est un film documentaire italien réalisé par Silvano Agosti et sorti en 1983.
-Tiré de plus de neuf heures d'entretiens réalisés pour la télévision et collectés dans la ville de Parme pendant deux ans, le film est divisé en plusieurs sections consacrées frontalement voire crûment au sentiment amoureux, articulé autour de ses manifestations concrètes tels que l'amour, la tendresse et la sensualité[1],[2].
-Le film a été projeté en 2016 au cinéma du Panthéon, à Paris, sur la proposition du chanteur Christophe dans le cadre du programme « L'inconnu du ciné-club » organisé par Télérama[3].
+Tiré de plus de neuf heures d'entretiens réalisés pour la télévision et collectés dans la ville de Parme pendant deux ans, le film est divisé en plusieurs sections consacrées frontalement voire crûment au sentiment amoureux, articulé autour de ses manifestations concrètes tels que l'amour, la tendresse et la sensualité,.
+Le film a été projeté en 2016 au cinéma du Panthéon, à Paris, sur la proposition du chanteur Christophe dans le cadre du programme « L'inconnu du ciné-club » organisé par Télérama.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>On_vit_d%27amour</t>
+          <t>On_vit_d'amour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film se compose de sept interviews de durées variables.
 Une jeune mère raconte sa récente expérience de maternité ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>On_vit_d%27amour</t>
+          <t>On_vit_d'amour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre français : On vit d'amour[4],[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre français : On vit d'amour,
 Titre original : D'amore si vive
 Réalisation : Silvano Agosti
 Scénario : Silvano Agosti
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On_vit_d%27amour</t>
+          <t>On_vit_d'amour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,9 +610,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CorsicaDoc - Festival international du film documentaire d'Ajaccio - Ajaccio (Corse-du-Sud) - Sélection « Séxualité(s) »[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CorsicaDoc - Festival international du film documentaire d'Ajaccio - Ajaccio (Corse-du-Sud) - Sélection « Séxualité(s) »</t>
         </is>
       </c>
     </row>
